--- a/Datasets/Ingresos por la operación del servicio de Internet fijo.xlsx
+++ b/Datasets/Ingresos por la operación del servicio de Internet fijo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsdrajlin/Library/CloudStorage/GoogleDrive-dsdrajlin@gmail.com/Mi unidad/_Archive/Henry/LABS/PI DA/PI-02/Datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057EF771-A11D-4541-A393-08ABE358E6C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="245" windowWidth="20486" windowHeight="7295"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="10" r:id="rId1"/>
@@ -139,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
@@ -239,7 +245,7 @@
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -298,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,9 +337,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,6 +389,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,25 +581,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.375" style="4"/>
-    <col min="3" max="3" width="21.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.375" style="4"/>
+    <col min="1" max="2" width="11.33203125" style="4"/>
+    <col min="3" max="3" width="21.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" style="4"/>
     <col min="7" max="7" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.375" style="4"/>
+    <col min="9" max="16384" width="11.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,561 +613,561 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2984054.2087800005</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11">
-        <v>72443482.989149705</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3270816.2039100002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>64086784.330530398</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
       <c r="C4" s="11">
-        <v>60419500.623280302</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>3478637.7427996206</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="11">
-        <v>55219313.0146503</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>3950440.7803699998</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="11">
-        <v>45467887.165012479</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>4876385.3150700014</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="11">
-        <v>42999944.292822465</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>4701790.7196600009</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="11">
-        <v>38239666.633542471</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>5153738.8843600005</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="11">
-        <v>36676371.362392448</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>5376899.2060000002</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="8"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="11">
-        <v>33539702.716311768</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>5936844.8864999991</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="11">
-        <v>31997444.530699246</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>6534240.5975000039</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="11">
-        <v>32102475.991463635</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>6912441.538856647</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="11">
-        <v>29946216.452049132</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
+        <v>7483980.3932790067</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="11">
-        <v>24169250.699015297</v>
+        <v>8701201.4213699996</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="11">
-        <v>21652748.444642507</v>
+        <v>9678646.9282900002</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="11">
-        <v>20743117.694006097</v>
+        <v>10065997.86215</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="11">
-        <v>20207413.770852432</v>
+        <v>11226127.38858</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2018</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="11">
-        <v>16637686.589009605</v>
+        <v>13171459.230893355</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2018</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="11">
-        <v>15410980.692582969</v>
+        <v>14319467.460713817</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="11">
-        <v>14319467.460713817</v>
+        <v>15410980.692582969</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2018</v>
       </c>
       <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11">
+        <v>16637686.589009605</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="11">
-        <v>13171459.230893355</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
       <c r="C22" s="11">
-        <v>11226127.38858</v>
+        <v>20207413.770852432</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G22" s="5"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>20743117.694006097</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="11">
-        <v>10065997.86215</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="C24" s="11">
+        <v>21652748.444642507</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="11">
+        <v>24169250.699015297</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>29946216.452049132</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="11">
-        <v>9678646.9282900002</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="C27" s="11">
+        <v>32102475.991463635</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11">
+        <v>31997444.530699246</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11">
+        <v>33539702.716311768</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="11">
-        <v>8701201.4213699996</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="C30" s="11">
+        <v>36676371.362392448</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>38239666.633542471</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="11">
+        <v>42999944.292822465</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C26" s="11">
-        <v>7483980.3932790067</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="C33" s="11">
+        <v>45467887.165012479</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11">
+        <v>55219313.0146503</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="11">
+        <v>60419500.623280302</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="11">
-        <v>6912441.538856647</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="11">
-        <v>6534240.5975000039</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="11">
-        <v>5936844.8864999991</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="C36" s="11">
+        <v>64086784.330530398</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="11">
-        <v>5376899.2060000002</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
-      <c r="C31" s="11">
-        <v>5153738.8843600005</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2</v>
-      </c>
-      <c r="C32" s="11">
-        <v>4701790.7196600009</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="11">
-        <v>4876385.3150700014</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B34" s="2">
-        <v>4</v>
-      </c>
-      <c r="C34" s="11">
-        <v>3950440.7803699998</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3</v>
-      </c>
-      <c r="C35" s="11">
-        <v>3478637.7427996206</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="11">
-        <v>3270816.2039100002</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
       <c r="C37" s="11">
-        <v>2984054.2087800005</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>4</v>
+        <v>72443482.989149705</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D17">
-    <sortCondition descending="1" ref="A2:A17"/>
-    <sortCondition descending="1" ref="B2:B17"/>
+  <sortState ref="A2:D37">
+    <sortCondition ref="A2:A37"/>
+    <sortCondition ref="B2:B37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
